--- a/data/hypothesis_excel.xlsx
+++ b/data/hypothesis_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb6a47d18da3dfca/PythonCodes/stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb6a47d18da3dfca/PythonCodes/stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39EE4E4C-7913-4AF3-A9A5-F02338303DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{39EE4E4C-7913-4AF3-A9A5-F02338303DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26385338-9504-4686-8CB8-B2F969205C5F}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="16380" windowHeight="10980" xr2:uid="{73158CB5-361B-4C7B-91AC-DCA12D511BFB}"/>
   </bookViews>
@@ -116,9 +116,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,27 +440,28 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.25" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="14.8671875" customWidth="1"/>
-    <col min="2" max="2" width="10.953125" customWidth="1"/>
-    <col min="3" max="3" width="9.6484375" customWidth="1"/>
+    <col min="2" max="2" width="10.953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6484375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.6953125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -465,16 +469,16 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>54</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>65</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>28</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>93</v>
       </c>
     </row>
@@ -482,16 +486,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>24</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>33</v>
       </c>
     </row>
@@ -499,16 +503,16 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>65</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>84</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>33</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>98</v>
       </c>
     </row>
@@ -516,16 +520,16 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>25</v>
       </c>
     </row>
@@ -533,16 +537,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>12</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>21</v>
       </c>
     </row>
